--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 10:15:15</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 11:25:01</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -2210,7 +2210,7 @@
     <t>-43°53'30.400"</t>
   </si>
   <si>
-    <t>202.958,03</t>
+    <t>209.484,43</t>
   </si>
   <si>
     <t>Barnabé 1</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 11:25:01</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 11:55:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 11:55:56</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 12:00:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 12:00:00</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 12:21:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232109.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 12:21:32</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 12:31:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233109.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 12:31:40</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 12:40:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 12:40:39</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 12:49:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 12:49:24</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 12:57:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 12:57:42</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 01:20:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233509.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 01:20:58</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 01:35:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233509.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234409.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 01:35:16</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 01:44:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234409.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235309.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 01:44:28</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 01:53:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 01:53:29</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 02:08:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232309.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 02:08:05</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 02:23:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233309.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 02:23:33</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 02:33:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 02:33:39</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 02:41:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234109.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 02:41:56</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 02:51:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235109.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 02:51:01</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 03:00:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232609.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 03:00:07</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 03:26:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232609.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 03:26:23</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 03:38:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 03:38:50</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 03:48:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235609.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 03:48:50</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 03:56:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235609.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231409.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 03:56:39</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 04:14:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231409.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232409.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 04:14:12</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 04:24:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232409.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233309.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 04:24:48</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 04:33:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 04:33:51</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 04:42:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 04:42:55</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 04:51:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235109.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 04:51:28</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 05:07:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 05:07:15</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 05:29:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 05:29:35</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 05:42:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 05:42:31</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 05:51:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235109.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 05:51:20</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 06:00:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 06:00:38</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 06:22:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 06:22:01</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 06:30:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 06:30:24</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 06:39:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 06:39:41</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 06:48:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235609.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 06:48:20</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 06:56:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235609.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 06:56:55</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 07:18:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233309.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 07:18:39</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 07:33:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234309.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 07:33:48</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 07:43:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 07:43:03</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 07:51:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235109.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 07:51:24</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 08:01:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230109.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 08:01:18</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 08:17:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232609.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 08:17:35</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 08:26:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232609.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233509.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 08:26:49</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 08:35:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233509.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234409.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 08:35:28</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 08:44:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234409.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235309.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 08:44:19</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 08:53:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231609.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 08:53:30</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 09:16:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231609.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 09:16:16</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 09:50:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 09:50:27</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 10:12:36</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -15718,7 +15718,7 @@
         <v>43</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="O52" s="0" t="s">
         <v>45</v>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 10:12:36</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 10:32:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 10:32:17</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 10:42:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 10:42:06</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 10:50:43</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -16308,7 +16308,7 @@
         <v>222</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="O62" s="0" t="s">
         <v>45</v>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 10:50:43</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 10:59:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232309.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 10:59:29</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 11:23:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233609.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 11:23:18</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 11:36:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233609.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234609.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 11:36:49</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 11:46:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234609.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235409.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 11:46:21</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 11:54:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235409.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 11:54:38</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 12:17:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 12:17:04</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 12:37:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 12:37:00</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 12:50:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 12:50:02</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 12:58:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233509.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 12:58:53</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 01:35:11</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -4391,7 +4391,7 @@
     <t>ALTO HORIZONTE</t>
   </si>
   <si>
-    <t>235.085.772,00</t>
+    <t>237.783.463,00</t>
   </si>
   <si>
     <t>BARRAGEM DE REJEITOS PGDM</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233509.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235609.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 01:35:11</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 01:56:00</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -6905,7 +6905,7 @@
     <t>-43°43'39.215"</t>
   </si>
   <si>
-    <t>10.454.955,01</t>
+    <t>10.488.213,25</t>
   </si>
   <si>
     <t>Conterpa</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235609.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231409.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 01:56:00</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 02:14:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231409.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 02:14:29</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 02:30:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 02:30:07</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 02:42:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 02:42:36</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 02:51:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235109.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 02:51:12</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 03:00:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232609.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 03:00:10</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 03:26:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232609.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233809.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 03:26:19</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 03:38:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233809.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 03:38:56</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 03:47:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235609.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 03:47:59</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 03:56:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235609.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 03:56:39</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 04:12:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 04:12:24</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 04:22:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 04:22:14</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 04:30:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 04:30:59</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 04:39:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 04:39:41</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 04:49:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 04:49:20</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 04:57:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 04:57:42</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 05:19:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233009.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 05:19:14</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 05:30:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234909.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 05:30:56</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 05:49:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234909.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 05:49:23</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 05:57:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231509.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 05:57:33</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 06:15:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231509.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232509.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 06:15:14</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 06:25:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232509.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233509.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 06:25:57</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 06:35:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233509.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234409.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 06:35:19</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 06:44:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234409.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235309.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 06:44:12</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 06:53:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230709.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 06:53:14</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 07:07:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230709.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232509.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 07:07:38</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 07:25:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232509.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233409.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 07:25:30</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 07:34:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233409.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234309.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 07:34:54</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 07:43:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 07:43:29</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 07:52:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232409.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 07:52:55</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 08:24:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232409.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233309.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 08:24:22</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 08:33:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233309.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234209.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 08:33:53</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 08:42:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-09.xlsx
+++ b/sigbm_download_2023-01-09.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234209.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235109.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 09/01/2023 - 08:42:32</t>
+    <t>Informação extraída do SIGBM: 09/01/2023 - 08:51:10</t>
   </si>
   <si>
     <t>ID Barragem</t>
